--- a/biology/Biochimie/Chlorine/Chlorine.xlsx
+++ b/biology/Biochimie/Chlorine/Chlorine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En chimie organique, la chlorine est un noyau aromatique hétérocyclique constitué de trois cycles pyrrole et d'un cycle azoline formant un macrocycle fermé par quatre ponts méthine. À l'inverse de la porphine, constituée de quatre cycles pyrrole et formant le noyau des porphyrines, la chlorine n'est pas aromatique sur l'ensemble de sa circonférence. Un composé apparenté, dont le macrocycle compte deux pyrroles et deux azolines, est appelé bactériochlorine.
